--- a/xlsx/country_comparison/foreign_aid_condition_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_condition_mean.xlsx
@@ -401,19 +401,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.645161290322581</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.730337078651685</v>
       </c>
       <c r="D2" t="n">
-        <v>0.714285714285714</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="E2" t="n">
-        <v>0.555555555555556</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8</v>
+        <v>0.617467248908297</v>
       </c>
     </row>
     <row r="3">
@@ -421,19 +421,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.419354838709677</v>
+        <v>0.405797101449275</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.359550561797753</v>
       </c>
       <c r="D3" t="n">
-        <v>0.285714285714286</v>
+        <v>0.421052631578947</v>
       </c>
       <c r="E3" t="n">
-        <v>0.333333333333333</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="F3" t="n">
-        <v>0.457142857142857</v>
+        <v>0.339737991266376</v>
       </c>
     </row>
     <row r="4">
@@ -441,19 +441,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.580645161290323</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="C4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.629213483146067</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="E4" t="n">
-        <v>0.518518518518518</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="F4" t="n">
-        <v>0.457142857142857</v>
+        <v>0.431441048034934</v>
       </c>
     </row>
     <row r="5">
@@ -461,19 +461,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.387096774193548</v>
+        <v>0.420289855072464</v>
       </c>
       <c r="C5" t="n">
+        <v>0.404494382022472</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.280701754385965</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.444444444444444</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.333333333333333</v>
-      </c>
       <c r="F5" t="n">
-        <v>0.285714285714286</v>
+        <v>0.377292576419214</v>
       </c>
     </row>
     <row r="6">
@@ -481,19 +481,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.709677419354839</v>
+        <v>0.753623188405797</v>
       </c>
       <c r="C6" t="n">
+        <v>0.651685393258427</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.771929824561403</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.481481481481481</v>
-      </c>
       <c r="F6" t="n">
-        <v>0.714285714285714</v>
+        <v>0.698689956331878</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_condition_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_condition_mean.xlsx
@@ -401,19 +401,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.74203821656051</v>
       </c>
       <c r="C2" t="n">
-        <v>0.730337078651685</v>
+        <v>0.691460055096419</v>
       </c>
       <c r="D2" t="n">
-        <v>0.684210526315789</v>
+        <v>0.760299625468165</v>
       </c>
       <c r="E2" t="n">
-        <v>0.333333333333333</v>
+        <v>0.700934579439252</v>
       </c>
       <c r="F2" t="n">
-        <v>0.617467248908297</v>
+        <v>0.616724738675958</v>
       </c>
     </row>
     <row r="3">
@@ -421,19 +421,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.405797101449275</v>
+        <v>0.455414012738854</v>
       </c>
       <c r="C3" t="n">
-        <v>0.359550561797753</v>
+        <v>0.495867768595041</v>
       </c>
       <c r="D3" t="n">
-        <v>0.421052631578947</v>
+        <v>0.49438202247191</v>
       </c>
       <c r="E3" t="n">
-        <v>0.388888888888889</v>
+        <v>0.44392523364486</v>
       </c>
       <c r="F3" t="n">
-        <v>0.339737991266376</v>
+        <v>0.338850174216028</v>
       </c>
     </row>
     <row r="4">
@@ -441,19 +441,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.521739130434783</v>
+        <v>0.522292993630573</v>
       </c>
       <c r="C4" t="n">
-        <v>0.629213483146067</v>
+        <v>0.534435261707989</v>
       </c>
       <c r="D4" t="n">
-        <v>0.649122807017544</v>
+        <v>0.49063670411985</v>
       </c>
       <c r="E4" t="n">
-        <v>0.444444444444444</v>
+        <v>0.47196261682243</v>
       </c>
       <c r="F4" t="n">
-        <v>0.431441048034934</v>
+        <v>0.430313588850174</v>
       </c>
     </row>
     <row r="5">
@@ -461,19 +461,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.420289855072464</v>
+        <v>0.331210191082803</v>
       </c>
       <c r="C5" t="n">
-        <v>0.404494382022472</v>
+        <v>0.421487603305785</v>
       </c>
       <c r="D5" t="n">
-        <v>0.280701754385965</v>
+        <v>0.322097378277154</v>
       </c>
       <c r="E5" t="n">
-        <v>0.444444444444444</v>
+        <v>0.425233644859813</v>
       </c>
       <c r="F5" t="n">
-        <v>0.377292576419214</v>
+        <v>0.376306620209059</v>
       </c>
     </row>
     <row r="6">
@@ -481,19 +481,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.753623188405797</v>
+        <v>0.770700636942675</v>
       </c>
       <c r="C6" t="n">
-        <v>0.651685393258427</v>
+        <v>0.774104683195592</v>
       </c>
       <c r="D6" t="n">
-        <v>0.771929824561403</v>
+        <v>0.741573033707865</v>
       </c>
       <c r="E6" t="n">
-        <v>0.666666666666667</v>
+        <v>0.831775700934579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.698689956331878</v>
+        <v>0.698606271777004</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_condition_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_condition_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">That recipient countries comply with climate targets and human rights</t>
@@ -395,105 +398,123 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.74203821656051</v>
+        <v>0.599904527576393</v>
       </c>
       <c r="C2" t="n">
-        <v>0.691460055096419</v>
+        <v>0.728775869205242</v>
       </c>
       <c r="D2" t="n">
-        <v>0.760299625468165</v>
+        <v>0.768240949279858</v>
       </c>
       <c r="E2" t="n">
-        <v>0.700934579439252</v>
+        <v>0.691219268240488</v>
       </c>
       <c r="F2" t="n">
-        <v>0.616724738675958</v>
+        <v>0.745334809919087</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.663482638463263</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.455414012738854</v>
+        <v>0.364630982116626</v>
       </c>
       <c r="C3" t="n">
-        <v>0.495867768595041</v>
+        <v>0.483812969853997</v>
       </c>
       <c r="D3" t="n">
-        <v>0.49438202247191</v>
+        <v>0.444171487741308</v>
       </c>
       <c r="E3" t="n">
-        <v>0.44392523364486</v>
+        <v>0.533250103128981</v>
       </c>
       <c r="F3" t="n">
-        <v>0.338850174216028</v>
+        <v>0.537098973334825</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.406091983039497</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.522292993630573</v>
+        <v>0.431139397544884</v>
       </c>
       <c r="C4" t="n">
-        <v>0.534435261707989</v>
+        <v>0.513364127998668</v>
       </c>
       <c r="D4" t="n">
-        <v>0.49063670411985</v>
+        <v>0.520714277370818</v>
       </c>
       <c r="E4" t="n">
-        <v>0.47196261682243</v>
+        <v>0.514034820193776</v>
       </c>
       <c r="F4" t="n">
-        <v>0.430313588850174</v>
+        <v>0.485355631728858</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.497337615064799</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.331210191082803</v>
+        <v>0.367397120968259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.421487603305785</v>
+        <v>0.379126500920661</v>
       </c>
       <c r="D5" t="n">
-        <v>0.322097378277154</v>
+        <v>0.347608186320156</v>
       </c>
       <c r="E5" t="n">
-        <v>0.425233644859813</v>
+        <v>0.414701983720979</v>
       </c>
       <c r="F5" t="n">
-        <v>0.376306620209059</v>
+        <v>0.355196048310446</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.440831381555251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.770700636942675</v>
+        <v>0.698627155314526</v>
       </c>
       <c r="C6" t="n">
-        <v>0.774104683195592</v>
+        <v>0.784543018829045</v>
       </c>
       <c r="D6" t="n">
-        <v>0.741573033707865</v>
+        <v>0.787498111637318</v>
       </c>
       <c r="E6" t="n">
-        <v>0.831775700934579</v>
+        <v>0.795026540260525</v>
       </c>
       <c r="F6" t="n">
-        <v>0.698606271777004</v>
+        <v>0.76385465510428</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.766093941950865</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_condition_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_condition_mean.xlsx
@@ -407,22 +407,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.599904527576393</v>
+        <v>0.612647122494813</v>
       </c>
       <c r="C2" t="n">
-        <v>0.728775869205242</v>
+        <v>0.722420328731522</v>
       </c>
       <c r="D2" t="n">
-        <v>0.768240949279858</v>
+        <v>0.759824067443875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.691219268240488</v>
+        <v>0.702262632211986</v>
       </c>
       <c r="F2" t="n">
-        <v>0.745334809919087</v>
+        <v>0.744829266794759</v>
       </c>
       <c r="G2" t="n">
-        <v>0.663482638463263</v>
+        <v>0.657069700252784</v>
       </c>
     </row>
     <row r="3">
@@ -430,22 +430,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.364630982116626</v>
+        <v>0.355078749532165</v>
       </c>
       <c r="C3" t="n">
-        <v>0.483812969853997</v>
+        <v>0.485298374127338</v>
       </c>
       <c r="D3" t="n">
-        <v>0.444171487741308</v>
+        <v>0.456976016582169</v>
       </c>
       <c r="E3" t="n">
-        <v>0.533250103128981</v>
+        <v>0.531410252861478</v>
       </c>
       <c r="F3" t="n">
-        <v>0.537098973334825</v>
+        <v>0.545076936966438</v>
       </c>
       <c r="G3" t="n">
-        <v>0.406091983039497</v>
+        <v>0.391787319881846</v>
       </c>
     </row>
     <row r="4">
@@ -453,22 +453,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.431139397544884</v>
+        <v>0.446370005710601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.513364127998668</v>
+        <v>0.512182903638162</v>
       </c>
       <c r="D4" t="n">
-        <v>0.520714277370818</v>
+        <v>0.523077904102226</v>
       </c>
       <c r="E4" t="n">
-        <v>0.514034820193776</v>
+        <v>0.510811881689551</v>
       </c>
       <c r="F4" t="n">
-        <v>0.485355631728858</v>
+        <v>0.482726616854335</v>
       </c>
       <c r="G4" t="n">
-        <v>0.497337615064799</v>
+        <v>0.485216197898256</v>
       </c>
     </row>
     <row r="5">
@@ -476,22 +476,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.367397120968259</v>
+        <v>0.363269361736756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.379126500920661</v>
+        <v>0.37618851509761</v>
       </c>
       <c r="D5" t="n">
-        <v>0.347608186320156</v>
+        <v>0.327274965142732</v>
       </c>
       <c r="E5" t="n">
-        <v>0.414701983720979</v>
+        <v>0.413234090354991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.355196048310446</v>
+        <v>0.356314307177162</v>
       </c>
       <c r="G5" t="n">
-        <v>0.440831381555251</v>
+        <v>0.40892516181208</v>
       </c>
     </row>
     <row r="6">
@@ -499,22 +499,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.698627155314526</v>
+        <v>0.684474061070824</v>
       </c>
       <c r="C6" t="n">
-        <v>0.784543018829045</v>
+        <v>0.778832917037047</v>
       </c>
       <c r="D6" t="n">
-        <v>0.787498111637318</v>
+        <v>0.791240807829886</v>
       </c>
       <c r="E6" t="n">
-        <v>0.795026540260525</v>
+        <v>0.798415603566951</v>
       </c>
       <c r="F6" t="n">
-        <v>0.76385465510428</v>
+        <v>0.767122440386178</v>
       </c>
       <c r="G6" t="n">
-        <v>0.766093941950865</v>
+        <v>0.759767791133235</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_condition_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_condition_mean.xlsx
@@ -35,19 +35,23 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">That recipient countries comply with climate targets and human rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That recipient countries cooperate to fight illegal migrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That other high-income countries also increase their foreign aid</t>
+    <t xml:space="preserve">That recipient countries comply with
+climate targets and human rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That recipient countries cooperate
+to fight illegal migrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That other high-income countries
+also increase their foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">That this is financed by increased taxes on millionaires</t>
   </si>
   <si>
-    <t xml:space="preserve">That we can be sure the aid reaches people in need and money is not diverted</t>
+    <t xml:space="preserve">That we can be sure the aid reaches
+people in need and money is not diverted</t>
   </si>
 </sst>
 </file>
@@ -407,22 +411,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.612647122494813</v>
+        <v>0.612607348826151</v>
       </c>
       <c r="C2" t="n">
-        <v>0.722420328731522</v>
+        <v>0.722938932926743</v>
       </c>
       <c r="D2" t="n">
-        <v>0.759824067443875</v>
+        <v>0.759848639770841</v>
       </c>
       <c r="E2" t="n">
-        <v>0.702262632211986</v>
+        <v>0.70227868653562</v>
       </c>
       <c r="F2" t="n">
-        <v>0.744829266794759</v>
+        <v>0.747093732041083</v>
       </c>
       <c r="G2" t="n">
-        <v>0.657069700252784</v>
+        <v>0.657099142639853</v>
       </c>
     </row>
     <row r="3">
@@ -430,22 +434,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.355078749532165</v>
+        <v>0.355027957335685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.485298374127338</v>
+        <v>0.485042281706023</v>
       </c>
       <c r="D3" t="n">
-        <v>0.456976016582169</v>
+        <v>0.45704375493215</v>
       </c>
       <c r="E3" t="n">
-        <v>0.531410252861478</v>
+        <v>0.531411567603689</v>
       </c>
       <c r="F3" t="n">
-        <v>0.545076936966438</v>
+        <v>0.546909604489108</v>
       </c>
       <c r="G3" t="n">
-        <v>0.391787319881846</v>
+        <v>0.391801113282055</v>
       </c>
     </row>
     <row r="4">
@@ -453,22 +457,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.446370005710601</v>
+        <v>0.446393661326311</v>
       </c>
       <c r="C4" t="n">
-        <v>0.512182903638162</v>
+        <v>0.513295362206274</v>
       </c>
       <c r="D4" t="n">
-        <v>0.523077904102226</v>
+        <v>0.523054045901261</v>
       </c>
       <c r="E4" t="n">
-        <v>0.510811881689551</v>
+        <v>0.510804613389871</v>
       </c>
       <c r="F4" t="n">
-        <v>0.482726616854335</v>
+        <v>0.496524558215797</v>
       </c>
       <c r="G4" t="n">
-        <v>0.485216197898256</v>
+        <v>0.485194282499142</v>
       </c>
     </row>
     <row r="5">
@@ -476,22 +480,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.363269361736756</v>
+        <v>0.363253941831613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.37618851509761</v>
+        <v>0.376725491200405</v>
       </c>
       <c r="D5" t="n">
-        <v>0.327274965142732</v>
+        <v>0.327194372210158</v>
       </c>
       <c r="E5" t="n">
-        <v>0.413234090354991</v>
+        <v>0.413231427093544</v>
       </c>
       <c r="F5" t="n">
-        <v>0.356314307177162</v>
+        <v>0.36762492465666</v>
       </c>
       <c r="G5" t="n">
-        <v>0.40892516181208</v>
+        <v>0.408912844402176</v>
       </c>
     </row>
     <row r="6">
@@ -499,22 +503,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.684474061070824</v>
+        <v>0.684337117444274</v>
       </c>
       <c r="C6" t="n">
-        <v>0.778832917037047</v>
+        <v>0.777853373922414</v>
       </c>
       <c r="D6" t="n">
-        <v>0.791240807829886</v>
+        <v>0.791248871824903</v>
       </c>
       <c r="E6" t="n">
-        <v>0.798415603566951</v>
+        <v>0.79840673718706</v>
       </c>
       <c r="F6" t="n">
-        <v>0.767122440386178</v>
+        <v>0.749338780845686</v>
       </c>
       <c r="G6" t="n">
-        <v>0.759767791133235</v>
+        <v>0.759778554646836</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_condition_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_condition_mean.xlsx
@@ -414,7 +414,7 @@
         <v>0.612607348826151</v>
       </c>
       <c r="C2" t="n">
-        <v>0.722938932926743</v>
+        <v>0.721303753618065</v>
       </c>
       <c r="D2" t="n">
         <v>0.759848639770841</v>
@@ -423,7 +423,7 @@
         <v>0.70227868653562</v>
       </c>
       <c r="F2" t="n">
-        <v>0.747093732041083</v>
+        <v>0.739350662340992</v>
       </c>
       <c r="G2" t="n">
         <v>0.657099142639853</v>
@@ -437,7 +437,7 @@
         <v>0.355027957335685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.485042281706023</v>
+        <v>0.48731534964121</v>
       </c>
       <c r="D3" t="n">
         <v>0.45704375493215</v>
@@ -446,7 +446,7 @@
         <v>0.531411567603689</v>
       </c>
       <c r="F3" t="n">
-        <v>0.546909604489108</v>
+        <v>0.555119791158646</v>
       </c>
       <c r="G3" t="n">
         <v>0.391801113282055</v>
@@ -460,7 +460,7 @@
         <v>0.446393661326311</v>
       </c>
       <c r="C4" t="n">
-        <v>0.513295362206274</v>
+        <v>0.512467089810892</v>
       </c>
       <c r="D4" t="n">
         <v>0.523054045901261</v>
@@ -469,7 +469,7 @@
         <v>0.510804613389871</v>
       </c>
       <c r="F4" t="n">
-        <v>0.496524558215797</v>
+        <v>0.488799400347602</v>
       </c>
       <c r="G4" t="n">
         <v>0.485194282499142</v>
@@ -483,7 +483,7 @@
         <v>0.363253941831613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.376725491200405</v>
+        <v>0.375337860328498</v>
       </c>
       <c r="D5" t="n">
         <v>0.327194372210158</v>
@@ -492,7 +492,7 @@
         <v>0.413231427093544</v>
       </c>
       <c r="F5" t="n">
-        <v>0.36762492465666</v>
+        <v>0.351749697398661</v>
       </c>
       <c r="G5" t="n">
         <v>0.408912844402176</v>
@@ -506,7 +506,7 @@
         <v>0.684337117444274</v>
       </c>
       <c r="C6" t="n">
-        <v>0.777853373922414</v>
+        <v>0.774340457244579</v>
       </c>
       <c r="D6" t="n">
         <v>0.791248871824903</v>
@@ -515,7 +515,7 @@
         <v>0.79840673718706</v>
       </c>
       <c r="F6" t="n">
-        <v>0.749338780845686</v>
+        <v>0.722912860019204</v>
       </c>
       <c r="G6" t="n">
         <v>0.759778554646836</v>
